--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H2">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I2">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J2">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66892154094224</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N2">
-        <v>7.66892154094224</v>
+        <v>27.492548</v>
       </c>
       <c r="O2">
-        <v>0.03427007228188779</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P2">
-        <v>0.03427007228188779</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q2">
-        <v>175.4545445433835</v>
+        <v>225.1206337548969</v>
       </c>
       <c r="R2">
-        <v>175.4545445433835</v>
+        <v>2026.085703794072</v>
       </c>
       <c r="S2">
-        <v>0.004994422978593648</v>
+        <v>0.005910692661577743</v>
       </c>
       <c r="T2">
-        <v>0.004994422978593648</v>
+        <v>0.009372174558386265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H3">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I3">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J3">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.94191737041329</v>
+        <v>80.32428</v>
       </c>
       <c r="N3">
-        <v>74.94191737041329</v>
+        <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3348925805950776</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P3">
-        <v>0.3348925805950776</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q3">
-        <v>1714.569631366735</v>
+        <v>1973.18773285464</v>
       </c>
       <c r="R3">
-        <v>1714.569631366735</v>
+        <v>17758.68959569176</v>
       </c>
       <c r="S3">
-        <v>0.04880629331991723</v>
+        <v>0.05180736238152781</v>
       </c>
       <c r="T3">
-        <v>0.04880629331991723</v>
+        <v>0.08214733389972016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H4">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I4">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J4">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.146046409154184</v>
+        <v>0.118916</v>
       </c>
       <c r="N4">
-        <v>0.146046409154184</v>
+        <v>0.356748</v>
       </c>
       <c r="O4">
-        <v>0.0006526368761896478</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P4">
-        <v>0.0006526368761896478</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q4">
-        <v>3.341344159480819</v>
+        <v>2.921203805874666</v>
       </c>
       <c r="R4">
-        <v>3.341344159480819</v>
+        <v>26.290834252872</v>
       </c>
       <c r="S4">
-        <v>9.511344429938273E-05</v>
+        <v>7.669815782926107E-05</v>
       </c>
       <c r="T4">
-        <v>9.511344429938273E-05</v>
+        <v>0.0001216149383227478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H5">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I5">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J5">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.022086543386</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N5">
-        <v>141.022086543386</v>
+        <v>0.441194</v>
       </c>
       <c r="O5">
-        <v>0.630184710246845</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P5">
-        <v>0.630184710246845</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q5">
-        <v>3226.394458846865</v>
+        <v>3.612683440212888</v>
       </c>
       <c r="R5">
-        <v>3226.394458846865</v>
+        <v>32.51415096191599</v>
       </c>
       <c r="S5">
-        <v>0.09184132941787437</v>
+        <v>9.485341766547537E-05</v>
       </c>
       <c r="T5">
-        <v>0.09184132941787437</v>
+        <v>0.0001504024720485227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7049145528505</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H6">
-        <v>23.7049145528505</v>
+        <v>73.695814</v>
       </c>
       <c r="I6">
-        <v>0.1510004935610091</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J6">
-        <v>0.1510004935610091</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66892154094224</v>
+        <v>141.03759</v>
       </c>
       <c r="N6">
-        <v>7.66892154094224</v>
+        <v>282.07518</v>
       </c>
       <c r="O6">
-        <v>0.03427007228188779</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P6">
-        <v>0.03427007228188779</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q6">
-        <v>181.7911298405504</v>
+        <v>3464.626666549419</v>
       </c>
       <c r="R6">
-        <v>181.7911298405504</v>
+        <v>20787.75999929652</v>
       </c>
       <c r="S6">
-        <v>0.005174797828936515</v>
+        <v>0.09096608814355188</v>
       </c>
       <c r="T6">
-        <v>0.005174797828936515</v>
+        <v>0.09615906919752314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H7">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J7">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.94191737041329</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N7">
-        <v>74.94191737041329</v>
+        <v>27.492548</v>
       </c>
       <c r="O7">
-        <v>0.3348925805950776</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P7">
-        <v>0.3348925805950776</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q7">
-        <v>1776.49174769243</v>
+        <v>236.3418363554715</v>
       </c>
       <c r="R7">
-        <v>1776.49174769243</v>
+        <v>2127.076527199244</v>
       </c>
       <c r="S7">
-        <v>0.05056894495977675</v>
+        <v>0.006205312833700686</v>
       </c>
       <c r="T7">
-        <v>0.05056894495977675</v>
+        <v>0.009839333289123073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H8">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J8">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.146046409154184</v>
+        <v>80.32428</v>
       </c>
       <c r="N8">
-        <v>0.146046409154184</v>
+        <v>240.97284</v>
       </c>
       <c r="O8">
-        <v>0.0006526368761896478</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P8">
-        <v>0.0006526368761896478</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q8">
-        <v>3.462017649750575</v>
+        <v>2071.54184171628</v>
       </c>
       <c r="R8">
-        <v>3.462017649750575</v>
+        <v>18643.87657544652</v>
       </c>
       <c r="S8">
-        <v>9.854849042075203E-05</v>
+        <v>0.05438971522847944</v>
       </c>
       <c r="T8">
-        <v>9.854849042075203E-05</v>
+        <v>0.08624199133476199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H9">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J9">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>141.022086543386</v>
+        <v>0.118916</v>
       </c>
       <c r="N9">
-        <v>141.022086543386</v>
+        <v>0.356748</v>
       </c>
       <c r="O9">
-        <v>0.630184710246845</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P9">
-        <v>0.630184710246845</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q9">
-        <v>3342.916511575653</v>
+        <v>3.066812047982666</v>
       </c>
       <c r="R9">
-        <v>3342.916511575653</v>
+        <v>27.601308431844</v>
       </c>
       <c r="S9">
-        <v>0.09515820228187513</v>
+        <v>8.052119951912247E-05</v>
       </c>
       <c r="T9">
-        <v>0.09515820228187513</v>
+        <v>0.0001276768698277103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.97395684906843</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H10">
-        <v>4.97395684906843</v>
+        <v>77.369203</v>
       </c>
       <c r="I10">
-        <v>0.03168414454673405</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J10">
-        <v>0.03168414454673405</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66892154094224</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N10">
-        <v>7.66892154094224</v>
+        <v>0.441194</v>
       </c>
       <c r="O10">
-        <v>0.03427007228188779</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P10">
-        <v>0.03427007228188779</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q10">
-        <v>38.14488482353808</v>
+        <v>3.792758683153555</v>
       </c>
       <c r="R10">
-        <v>38.14488482353808</v>
+        <v>34.134828148382</v>
       </c>
       <c r="S10">
-        <v>0.001085817923806357</v>
+        <v>9.958141349254859E-05</v>
       </c>
       <c r="T10">
-        <v>0.001085817923806357</v>
+        <v>0.0001578993264342528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.97395684906843</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H11">
-        <v>4.97395684906843</v>
+        <v>77.369203</v>
       </c>
       <c r="I11">
-        <v>0.03168414454673405</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J11">
-        <v>0.03168414454673405</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.94191737041329</v>
+        <v>141.03759</v>
       </c>
       <c r="N11">
-        <v>74.94191737041329</v>
+        <v>282.07518</v>
       </c>
       <c r="O11">
-        <v>0.3348925805950776</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P11">
-        <v>0.3348925805950776</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q11">
-        <v>372.7578631868876</v>
+        <v>3637.32197711359</v>
       </c>
       <c r="R11">
-        <v>372.7578631868876</v>
+        <v>21823.93186268154</v>
       </c>
       <c r="S11">
-        <v>0.01061078493120322</v>
+        <v>0.09550031891491637</v>
       </c>
       <c r="T11">
-        <v>0.01061078493120322</v>
+        <v>0.1009521455999416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H12">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I12">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J12">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.146046409154184</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N12">
-        <v>0.146046409154184</v>
+        <v>27.492548</v>
       </c>
       <c r="O12">
-        <v>0.0006526368761896478</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P12">
-        <v>0.0006526368761896478</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q12">
-        <v>0.7264285370943037</v>
+        <v>76.17016006564489</v>
       </c>
       <c r="R12">
-        <v>0.7264285370943037</v>
+        <v>685.5314405908041</v>
       </c>
       <c r="S12">
-        <v>2.067824112172178E-05</v>
+        <v>0.001999898448319893</v>
       </c>
       <c r="T12">
-        <v>2.067824112172178E-05</v>
+        <v>0.003171099975903111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H13">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I13">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J13">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>141.022086543386</v>
+        <v>80.32428</v>
       </c>
       <c r="N13">
-        <v>141.022086543386</v>
+        <v>240.97284</v>
       </c>
       <c r="O13">
-        <v>0.630184710246845</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P13">
-        <v>0.630184710246845</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q13">
-        <v>701.4377732323957</v>
+        <v>667.63327263348</v>
       </c>
       <c r="R13">
-        <v>701.4377732323957</v>
+        <v>6008.699453701321</v>
       </c>
       <c r="S13">
-        <v>0.01996686345060275</v>
+        <v>0.01752915767586322</v>
       </c>
       <c r="T13">
-        <v>0.01996686345060275</v>
+        <v>0.0277947670444116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.55483005075586</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H14">
-        <v>2.55483005075586</v>
+        <v>24.935173</v>
       </c>
       <c r="I14">
-        <v>0.01627428767011704</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J14">
-        <v>0.01627428767011704</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>7.66892154094224</v>
+        <v>0.118916</v>
       </c>
       <c r="N14">
-        <v>7.66892154094224</v>
+        <v>0.356748</v>
       </c>
       <c r="O14">
-        <v>0.03427007228188779</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P14">
-        <v>0.03427007228188779</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q14">
-        <v>19.59279120968817</v>
+        <v>0.9883970108226666</v>
       </c>
       <c r="R14">
-        <v>19.59279120968817</v>
+        <v>8.895573097404</v>
       </c>
       <c r="S14">
-        <v>0.0005577210147911462</v>
+        <v>2.595102395169866E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005577210147911462</v>
+        <v>4.114873507553693E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.55483005075586</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H15">
-        <v>2.55483005075586</v>
+        <v>24.935173</v>
       </c>
       <c r="I15">
-        <v>0.01627428767011704</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J15">
-        <v>0.01627428767011704</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.94191737041329</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N15">
-        <v>74.94191737041329</v>
+        <v>0.441194</v>
       </c>
       <c r="O15">
-        <v>0.3348925805950776</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P15">
-        <v>0.3348925805950776</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q15">
-        <v>191.4638625591944</v>
+        <v>1.222360968506889</v>
       </c>
       <c r="R15">
-        <v>191.4638625591944</v>
+        <v>11.001248716562</v>
       </c>
       <c r="S15">
-        <v>0.005450138195192148</v>
+        <v>3.209390399202165E-05</v>
       </c>
       <c r="T15">
-        <v>0.005450138195192148</v>
+        <v>5.08890730233006E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.55483005075586</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H16">
-        <v>2.55483005075586</v>
+        <v>24.935173</v>
       </c>
       <c r="I16">
-        <v>0.01627428767011704</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J16">
-        <v>0.01627428767011704</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.146046409154184</v>
+        <v>141.03759</v>
       </c>
       <c r="N16">
-        <v>0.146046409154184</v>
+        <v>282.07518</v>
       </c>
       <c r="O16">
-        <v>0.0006526368761896478</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P16">
-        <v>0.0006526368761896478</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q16">
-        <v>0.3731237549120949</v>
+        <v>1172.26556871769</v>
       </c>
       <c r="R16">
-        <v>0.3731237549120949</v>
+        <v>7033.593412306141</v>
       </c>
       <c r="S16">
-        <v>1.062120026723689E-05</v>
+        <v>0.03077861579753655</v>
       </c>
       <c r="T16">
-        <v>1.062120026723689E-05</v>
+        <v>0.03253567463084417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H17">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I17">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J17">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.022086543386</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N17">
-        <v>141.022086543386</v>
+        <v>27.492548</v>
       </c>
       <c r="O17">
-        <v>0.630184710246845</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P17">
-        <v>0.630184710246845</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q17">
-        <v>360.2874645213361</v>
+        <v>30.979345385196</v>
       </c>
       <c r="R17">
-        <v>360.2874645213361</v>
+        <v>278.814108466764</v>
       </c>
       <c r="S17">
-        <v>0.01025580725986651</v>
+        <v>0.0008133834130376654</v>
       </c>
       <c r="T17">
-        <v>0.01025580725986651</v>
+        <v>0.001289725547639985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>102.873328068984</v>
+        <v>3.380481</v>
       </c>
       <c r="H18">
-        <v>102.873328068984</v>
+        <v>10.141443</v>
       </c>
       <c r="I18">
-        <v>0.6553039150614552</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J18">
-        <v>0.6553039150614552</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.66892154094224</v>
+        <v>80.32428</v>
       </c>
       <c r="N18">
-        <v>7.66892154094224</v>
+        <v>240.97284</v>
       </c>
       <c r="O18">
-        <v>0.03427007228188779</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P18">
-        <v>0.03427007228188779</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q18">
-        <v>788.9274816166494</v>
+        <v>271.53470237868</v>
       </c>
       <c r="R18">
-        <v>788.9274816166494</v>
+        <v>2443.81232140812</v>
       </c>
       <c r="S18">
-        <v>0.02245731253576013</v>
+        <v>0.007129325046502756</v>
       </c>
       <c r="T18">
-        <v>0.02245731253576013</v>
+        <v>0.01130447523581163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>102.873328068984</v>
+        <v>3.380481</v>
       </c>
       <c r="H19">
-        <v>102.873328068984</v>
+        <v>10.141443</v>
       </c>
       <c r="I19">
-        <v>0.6553039150614552</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J19">
-        <v>0.6553039150614552</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>74.94191737041329</v>
+        <v>0.118916</v>
       </c>
       <c r="N19">
-        <v>74.94191737041329</v>
+        <v>0.356748</v>
       </c>
       <c r="O19">
-        <v>0.3348925805950776</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P19">
-        <v>0.3348925805950776</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q19">
-        <v>7709.524451765217</v>
+        <v>0.4019932785959999</v>
       </c>
       <c r="R19">
-        <v>7709.524451765217</v>
+        <v>3.617939507363999</v>
       </c>
       <c r="S19">
-        <v>0.2194564191889883</v>
+        <v>1.055460213561729E-05</v>
       </c>
       <c r="T19">
-        <v>0.2194564191889883</v>
+        <v>1.673569905814002E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>102.873328068984</v>
+        <v>3.380481</v>
       </c>
       <c r="H20">
-        <v>102.873328068984</v>
+        <v>10.141443</v>
       </c>
       <c r="I20">
-        <v>0.6553039150614552</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J20">
-        <v>0.6553039150614552</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.146046409154184</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N20">
-        <v>0.146046409154184</v>
+        <v>0.441194</v>
       </c>
       <c r="O20">
-        <v>0.0006526368761896478</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P20">
-        <v>0.0006526368761896478</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q20">
-        <v>15.02428016221544</v>
+        <v>0.4971493114379999</v>
       </c>
       <c r="R20">
-        <v>15.02428016221544</v>
+        <v>4.474343802941999</v>
       </c>
       <c r="S20">
-        <v>0.0004276755000805545</v>
+        <v>1.305298735976526E-05</v>
       </c>
       <c r="T20">
-        <v>0.0004276755000805545</v>
+        <v>2.069721486947938E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>102.873328068984</v>
+        <v>3.380481</v>
       </c>
       <c r="H21">
-        <v>102.873328068984</v>
+        <v>10.141443</v>
       </c>
       <c r="I21">
-        <v>0.6553039150614552</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J21">
-        <v>0.6553039150614552</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>141.022086543386</v>
+        <v>141.03759</v>
       </c>
       <c r="N21">
-        <v>141.022086543386</v>
+        <v>282.07518</v>
       </c>
       <c r="O21">
-        <v>0.630184710246845</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P21">
-        <v>0.630184710246845</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q21">
-        <v>14507.4113739504</v>
+        <v>476.7748932807899</v>
       </c>
       <c r="R21">
-        <v>14507.4113739504</v>
+        <v>2860.649359684739</v>
       </c>
       <c r="S21">
-        <v>0.4129625078366263</v>
+        <v>0.01251804339715696</v>
       </c>
       <c r="T21">
-        <v>0.4129625078366263</v>
+        <v>0.01323266093783477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>102.9802095</v>
+      </c>
+      <c r="H22">
+        <v>205.960419</v>
+      </c>
+      <c r="I22">
+        <v>0.6240187793518835</v>
+      </c>
+      <c r="J22">
+        <v>0.5252724844194389</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N22">
+        <v>27.492548</v>
+      </c>
+      <c r="O22">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P22">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q22">
+        <v>943.7294509096021</v>
+      </c>
+      <c r="R22">
+        <v>5662.376705457612</v>
+      </c>
+      <c r="S22">
+        <v>0.02477824731996536</v>
+      </c>
+      <c r="T22">
+        <v>0.02619276311930519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>102.9802095</v>
+      </c>
+      <c r="H23">
+        <v>205.960419</v>
+      </c>
+      <c r="I23">
+        <v>0.6240187793518835</v>
+      </c>
+      <c r="J23">
+        <v>0.5252724844194389</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>80.32428</v>
+      </c>
+      <c r="N23">
+        <v>240.97284</v>
+      </c>
+      <c r="O23">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P23">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q23">
+        <v>8271.81118233666</v>
+      </c>
+      <c r="R23">
+        <v>49630.86709401996</v>
+      </c>
+      <c r="S23">
+        <v>0.2171819296965287</v>
+      </c>
+      <c r="T23">
+        <v>0.2295801944696516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>102.9802095</v>
+      </c>
+      <c r="H24">
+        <v>205.960419</v>
+      </c>
+      <c r="I24">
+        <v>0.6240187793518835</v>
+      </c>
+      <c r="J24">
+        <v>0.5252724844194389</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.118916</v>
+      </c>
+      <c r="N24">
+        <v>0.356748</v>
+      </c>
+      <c r="O24">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P24">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q24">
+        <v>12.245994592902</v>
+      </c>
+      <c r="R24">
+        <v>73.47596755741199</v>
+      </c>
+      <c r="S24">
+        <v>0.0003215267706326456</v>
+      </c>
+      <c r="T24">
+        <v>0.0003398817693174851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>102.9802095</v>
+      </c>
+      <c r="H25">
+        <v>205.960419</v>
+      </c>
+      <c r="I25">
+        <v>0.6240187793518835</v>
+      </c>
+      <c r="J25">
+        <v>0.5252724844194389</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.441194</v>
+      </c>
+      <c r="O25">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P25">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q25">
+        <v>15.144750183381</v>
+      </c>
+      <c r="R25">
+        <v>90.868501100286</v>
+      </c>
+      <c r="S25">
+        <v>0.0003976355355671215</v>
+      </c>
+      <c r="T25">
+        <v>0.0004203353552991426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>102.9802095</v>
+      </c>
+      <c r="H26">
+        <v>205.960419</v>
+      </c>
+      <c r="I26">
+        <v>0.6240187793518835</v>
+      </c>
+      <c r="J26">
+        <v>0.5252724844194389</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>141.03759</v>
+      </c>
+      <c r="N26">
+        <v>282.07518</v>
+      </c>
+      <c r="O26">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P26">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q26">
+        <v>14524.0805655751</v>
+      </c>
+      <c r="R26">
+        <v>58096.32226230042</v>
+      </c>
+      <c r="S26">
+        <v>0.3813394400291897</v>
+      </c>
+      <c r="T26">
+        <v>0.2687393097058655</v>
       </c>
     </row>
   </sheetData>
